--- a/QPSK_project/QPSK_VS_16QAM_Eb_over_N0.xlsx
+++ b/QPSK_project/QPSK_VS_16QAM_Eb_over_N0.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moonj\source\repos\moonjunyyy\QPSK_project\QPSK_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71D076C-6F11-4A5E-87EA-B17E6FB1C341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCBC1ADB-4082-48A9-8F54-85540FF42A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
-    <sheet name="16QAM_Eb_over_N0" sheetId="1" r:id="rId1"/>
+    <sheet name="QPSK_Eb_over_N0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -686,7 +686,37 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -719,10 +749,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'16QAM_Eb_over_N0'!$A:$A</c:f>
+              <c:f>QPSK_Eb_over_N0!$A$1:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -818,542 +848,110 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>10.333299999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10.666700000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>11.333299999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>11.666700000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>12.333299999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>12.666700000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>13.333299999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>13.666700000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>14.333299999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>14.666700000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>15.333299999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>15.666700000000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>16.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>16.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>17.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>17.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>18.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>18.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>19.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>19.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>20.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>20.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>21.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>21.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>22.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>22.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>23.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>23.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>24.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>24.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>25.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>25.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>26.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>26.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>27.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>27.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>28.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>28.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>29.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>29.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>30.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>30.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>31.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>31.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>32.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>32.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>33.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>33.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>34.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>34.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'16QAM_Eb_over_N0'!$B$1:$B$102</c:f>
+              <c:f>QPSK_Eb_over_N0!$B$1:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0.14149999999999999</c:v>
+                  <c:v>7.8700000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23055200000000001</c:v>
+                  <c:v>7.1188000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23061200000000001</c:v>
+                  <c:v>6.3601000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22917100000000001</c:v>
+                  <c:v>5.6277000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22813900000000001</c:v>
+                  <c:v>4.999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22695499999999999</c:v>
+                  <c:v>4.3062999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22652600000000001</c:v>
+                  <c:v>3.7413000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.225802</c:v>
+                  <c:v>3.2058999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.225079</c:v>
+                  <c:v>2.7383000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.222526</c:v>
+                  <c:v>2.2848E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.22197500000000001</c:v>
+                  <c:v>1.8773000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.22075400000000001</c:v>
+                  <c:v>1.5347E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.21984000000000001</c:v>
+                  <c:v>1.255E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.217915</c:v>
+                  <c:v>9.9190000000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.217337</c:v>
+                  <c:v>7.6689999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.21476899999999999</c:v>
+                  <c:v>5.8440000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.21409800000000001</c:v>
+                  <c:v>4.5399999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.21265899999999999</c:v>
+                  <c:v>3.2499999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.21129999999999999</c:v>
+                  <c:v>2.3709999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.20910000000000001</c:v>
+                  <c:v>1.6930000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.20655599999999999</c:v>
+                  <c:v>1.1670000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.20508999999999999</c:v>
+                  <c:v>7.5900000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.20338300000000001</c:v>
+                  <c:v>5.1900000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.20166400000000001</c:v>
+                  <c:v>3.28E-4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.199266</c:v>
+                  <c:v>1.5699999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.19719300000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.19420499999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.19197800000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.18956600000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.18657699999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.18398900000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.18044199999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.17746400000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.17487800000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.17203299999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.16705900000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.164635</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.16009999999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.15706600000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.153506</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.14897199999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.14524400000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.14088899999999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.13719999999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.13253100000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.12862599999999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.123805</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.120686</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.11652899999999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.111912</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.107387</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.103571</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>9.9632999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>9.5422999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>9.1735999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8.7613999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.3294000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7.9613000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>7.5965000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>7.2605000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6.8296999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6.4915E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6.0756999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>5.7432999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>5.3887999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>5.0500000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>4.7044999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4.3826999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4.0147000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3.6907000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>3.3979000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.0972E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.7705E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2.4691000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2.2345E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.9605000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.7121999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.4881E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.2905E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.1048000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>9.1819999999999992E-3</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>7.7479999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>6.4390000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>5.2119999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>4.1780000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>3.2929999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.905E-3</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.423E-3</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.0189999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>7.0600000000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>5.04E-4</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>3.3799999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.9000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.6100000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="95" formatCode="0.00E+00">
-                  <c:v>9.8999999999999994E-5</c:v>
-                </c:pt>
-                <c:pt idx="96" formatCode="0.00E+00">
-                  <c:v>4.6999999999999997E-5</c:v>
-                </c:pt>
-                <c:pt idx="97" formatCode="0.00E+00">
-                  <c:v>3.4999999999999997E-5</c:v>
-                </c:pt>
-                <c:pt idx="98" formatCode="0.00E+00">
-                  <c:v>2.1999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="99" formatCode="0.00E+00">
-                  <c:v>1.0000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="100" formatCode="0.00E+00">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="101" formatCode="0.00E+00">
+                  <c:v>1.1900000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00E+00">
+                  <c:v>6.3999999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00E+00">
+                  <c:v>3.8999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00E+00">
+                  <c:v>1.5999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00E+00">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00E+00">
+                  <c:v>3.9999999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00E+00">
                   <c:v>1.9999999999999999E-6</c:v>
                 </c:pt>
               </c:numCache>
@@ -1362,7 +960,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-47FF-47F5-86D1-4DC060142E93}"/>
+              <c16:uniqueId val="{00000000-7676-4CA4-AB69-F35D6A6CC0E6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1393,10 +991,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'16QAM_Eb_over_N0'!$A:$A</c:f>
+              <c:f>QPSK_Eb_over_N0!$A$1:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1603,225 +1201,222 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>22.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>23.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>23.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>24.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>24.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>25.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>25.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>26.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>26.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>27.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>27.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>28.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>28.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>29.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>29.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>30.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>30.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>31.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>31.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>32.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>32.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>33.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>33.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>34.333300000000001</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>34.666699999999999</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'16QAM_Eb_over_N0'!$C$1:$C$33</c:f>
+              <c:f>QPSK_Eb_over_N0!$C$1:$C$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
-                  <c:v>7.8799999999999995E-2</c:v>
+                  <c:v>2.5690999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0905999999999997E-2</c:v>
+                  <c:v>0.32077099999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3336000000000003E-2</c:v>
+                  <c:v>0.31310100000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6626000000000003E-2</c:v>
+                  <c:v>0.305259</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9596000000000001E-2</c:v>
+                  <c:v>0.29808099999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3484000000000002E-2</c:v>
+                  <c:v>0.29048499999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7277999999999999E-2</c:v>
+                  <c:v>0.28163899999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1885999999999998E-2</c:v>
+                  <c:v>0.273308</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7071999999999999E-2</c:v>
+                  <c:v>0.26502500000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.266E-2</c:v>
+                  <c:v>0.25703700000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9075000000000002E-2</c:v>
+                  <c:v>0.247666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5403999999999999E-2</c:v>
+                  <c:v>0.239763</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2529999999999999E-2</c:v>
+                  <c:v>0.232042</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.9109999999999997E-3</c:v>
+                  <c:v>0.223083</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.7349999999999997E-3</c:v>
+                  <c:v>0.214783</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0860000000000003E-3</c:v>
+                  <c:v>0.206397</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.4489999999999998E-3</c:v>
+                  <c:v>0.19795599999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.3040000000000001E-3</c:v>
+                  <c:v>0.189722</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.4229999999999998E-3</c:v>
+                  <c:v>0.18226800000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6459999999999999E-3</c:v>
+                  <c:v>0.17428399999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1770000000000001E-3</c:v>
+                  <c:v>0.16638900000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.0900000000000004E-4</c:v>
+                  <c:v>0.158301</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.0000000000000001E-4</c:v>
+                  <c:v>0.15060000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.2200000000000002E-4</c:v>
+                  <c:v>0.14319000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.9900000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>8.7999999999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>6.2000000000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>2.5000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>1.9000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="0.00E+00">
+                  <c:v>0.13619700000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.12858600000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.12148200000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.11401500000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.107513</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.100161</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.2675999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.6281999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.9837000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.3278999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.7275000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.0775999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.4961000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.8690999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.3747000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.8554999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.4185E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.9496999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.5527000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.1481E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8168E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5032999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.2414E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.9699999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.8600000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.3090000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.8399999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.6740000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.7209999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9889999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4239999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0139999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.1300000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.1599999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.8200000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.64E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.05E-4</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.00E+00">
+                  <c:v>5.8999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00E+00">
+                  <c:v>2.4000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00E+00">
+                  <c:v>1.5999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="0.00E+00">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.00E+00">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.00E+00">
                   <c:v>3.0000000000000001E-6</c:v>
                 </c:pt>
-                <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.9999999999999998E-6</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="0.00E+00">
+                <c:pt idx="67" formatCode="0.00E+00">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.00E+00">
                   <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.0000000000000001E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1829,7 +1424,393 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-47FF-47F5-86D1-4DC060142E93}"/>
+              <c16:uniqueId val="{00000002-7676-4CA4-AB69-F35D6A6CC0E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>QPSK_Eb_over_N0!$A$1:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.3333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.6666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.3333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.6666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.3333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.6666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.3333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.6666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.3333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.6666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14.333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15.333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15.666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16.333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16.666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17.333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>17.666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18.333300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>QPSK_Eb_over_N0!$D$1:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1.8450000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19530700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18850700000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18162500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17552699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16742699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.161605</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.154858</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14812600000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14129900000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13481899999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12848499999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11506</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.10863399999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.103021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.6951999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.0887999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.4685999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.9388E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.3417999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.7763000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.1991999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6708000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.1410999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.6650999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.1861000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7095000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3452999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9159000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5028000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1864000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.8475999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.5786000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.323E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0691000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.7899999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.1170000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.3439999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.3059999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.258E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.4740000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.8309999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.317E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.1799999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.0099999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.23E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.73E-4</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00E+00">
+                  <c:v>9.5000000000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00E+00">
+                  <c:v>4.5000000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00E+00">
+                  <c:v>1.5E-5</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00E+00">
+                  <c:v>1.4E-5</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00E+00">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.00E+00">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.00E+00">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7676-4CA4-AB69-F35D6A6CC0E6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1841,11 +1822,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1105888368"/>
-        <c:axId val="1105883376"/>
+        <c:axId val="498298256"/>
+        <c:axId val="498296592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1105888368"/>
+        <c:axId val="498298256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1902,12 +1883,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1105883376"/>
+        <c:crossAx val="498296592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1105883376"/>
+        <c:axId val="498296592"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1928,7 +1909,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1965,7 +1946,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1105888368"/>
+        <c:crossAx val="498298256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2581,23 +2562,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A87657-FC0F-4FE1-861F-1145405DA27A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{068DA2AF-A262-485C-AFF6-E90468CD7E63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2914,1138 +2895,1444 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection sqref="A1:B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.14149999999999999</v>
+        <v>7.8700000000000006E-2</v>
       </c>
       <c r="C1">
-        <v>7.8799999999999995E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2.5690999999999999E-2</v>
+      </c>
+      <c r="D1">
+        <v>1.8450000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.33333299999999999</v>
       </c>
       <c r="B2">
-        <v>0.23055200000000001</v>
+        <v>7.1188000000000001E-2</v>
       </c>
       <c r="C2">
-        <v>7.0905999999999997E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.32077099999999997</v>
+      </c>
+      <c r="D2">
+        <v>0.19530700000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.66666700000000001</v>
       </c>
       <c r="B3">
-        <v>0.23061200000000001</v>
+        <v>6.3601000000000005E-2</v>
       </c>
       <c r="C3">
-        <v>6.3336000000000003E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.31310100000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.18850700000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.22917100000000001</v>
+        <v>5.6277000000000001E-2</v>
       </c>
       <c r="C4">
-        <v>5.6626000000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.305259</v>
+      </c>
+      <c r="D4">
+        <v>0.18162500000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.3333299999999999</v>
       </c>
       <c r="B5">
-        <v>0.22813900000000001</v>
+        <v>4.999E-2</v>
       </c>
       <c r="C5">
-        <v>4.9596000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.29808099999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.17552699999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.6666700000000001</v>
       </c>
       <c r="B6">
-        <v>0.22695499999999999</v>
+        <v>4.3062999999999997E-2</v>
       </c>
       <c r="C6">
-        <v>4.3484000000000002E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.29048499999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.16742699999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0.22652600000000001</v>
+        <v>3.7413000000000002E-2</v>
       </c>
       <c r="C7">
-        <v>3.7277999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.28163899999999997</v>
+      </c>
+      <c r="D7">
+        <v>0.161605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2.3333300000000001</v>
       </c>
       <c r="B8">
-        <v>0.225802</v>
+        <v>3.2058999999999997E-2</v>
       </c>
       <c r="C8">
-        <v>3.1885999999999998E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.273308</v>
+      </c>
+      <c r="D8">
+        <v>0.154858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2.6666699999999999</v>
       </c>
       <c r="B9">
-        <v>0.225079</v>
+        <v>2.7383000000000001E-2</v>
       </c>
       <c r="C9">
-        <v>2.7071999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.26502500000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.14812600000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10">
-        <v>0.222526</v>
+        <v>2.2848E-2</v>
       </c>
       <c r="C10">
-        <v>2.266E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.25703700000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.14129900000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.3333300000000001</v>
       </c>
       <c r="B11">
-        <v>0.22197500000000001</v>
+        <v>1.8773000000000001E-2</v>
       </c>
       <c r="C11">
-        <v>1.9075000000000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.247666</v>
+      </c>
+      <c r="D11">
+        <v>0.13481899999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3.6666699999999999</v>
       </c>
       <c r="B12">
-        <v>0.22075400000000001</v>
+        <v>1.5347E-2</v>
       </c>
       <c r="C12">
-        <v>1.5403999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.239763</v>
+      </c>
+      <c r="D12">
+        <v>0.12848499999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13">
-        <v>0.21984000000000001</v>
+        <v>1.255E-2</v>
       </c>
       <c r="C13">
-        <v>1.2529999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.232042</v>
+      </c>
+      <c r="D13">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4.3333300000000001</v>
       </c>
       <c r="B14">
-        <v>0.217915</v>
+        <v>9.9190000000000007E-3</v>
       </c>
       <c r="C14">
-        <v>9.9109999999999997E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.223083</v>
+      </c>
+      <c r="D14">
+        <v>0.11506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4.6666699999999999</v>
       </c>
       <c r="B15">
-        <v>0.217337</v>
+        <v>7.6689999999999996E-3</v>
       </c>
       <c r="C15">
-        <v>7.7349999999999997E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.214783</v>
+      </c>
+      <c r="D15">
+        <v>0.10863399999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
       <c r="B16">
-        <v>0.21476899999999999</v>
+        <v>5.8440000000000002E-3</v>
       </c>
       <c r="C16">
-        <v>6.0860000000000003E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.206397</v>
+      </c>
+      <c r="D16">
+        <v>0.103021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5.3333300000000001</v>
       </c>
       <c r="B17">
-        <v>0.21409800000000001</v>
+        <v>4.5399999999999998E-3</v>
       </c>
       <c r="C17">
-        <v>4.4489999999999998E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.19795599999999999</v>
+      </c>
+      <c r="D17">
+        <v>9.6951999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5.6666699999999999</v>
       </c>
       <c r="B18">
-        <v>0.21265899999999999</v>
+        <v>3.2499999999999999E-3</v>
       </c>
       <c r="C18">
-        <v>3.3040000000000001E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.189722</v>
+      </c>
+      <c r="D18">
+        <v>9.0887999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
       <c r="B19">
-        <v>0.21129999999999999</v>
+        <v>2.3709999999999998E-3</v>
       </c>
       <c r="C19">
-        <v>2.4229999999999998E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.18226800000000001</v>
+      </c>
+      <c r="D19">
+        <v>8.4685999999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>6.3333300000000001</v>
       </c>
       <c r="B20">
-        <v>0.20910000000000001</v>
+        <v>1.6930000000000001E-3</v>
       </c>
       <c r="C20">
-        <v>1.6459999999999999E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.17428399999999999</v>
+      </c>
+      <c r="D20">
+        <v>7.9388E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>6.6666699999999999</v>
       </c>
       <c r="B21">
-        <v>0.20655599999999999</v>
+        <v>1.1670000000000001E-3</v>
       </c>
       <c r="C21">
-        <v>1.1770000000000001E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.16638900000000001</v>
+      </c>
+      <c r="D21">
+        <v>7.3417999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>7</v>
       </c>
       <c r="B22">
-        <v>0.20508999999999999</v>
+        <v>7.5900000000000002E-4</v>
       </c>
       <c r="C22">
-        <v>8.0900000000000004E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.158301</v>
+      </c>
+      <c r="D22">
+        <v>6.7763000000000004E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>7.3333300000000001</v>
       </c>
       <c r="B23">
-        <v>0.20338300000000001</v>
+        <v>5.1900000000000004E-4</v>
       </c>
       <c r="C23">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.15060000000000001</v>
+      </c>
+      <c r="D23">
+        <v>6.1991999999999998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>7.6666699999999999</v>
       </c>
       <c r="B24">
-        <v>0.20166400000000001</v>
+        <v>3.28E-4</v>
       </c>
       <c r="C24">
-        <v>3.2200000000000002E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.14319000000000001</v>
+      </c>
+      <c r="D24">
+        <v>5.6708000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>8</v>
       </c>
       <c r="B25">
-        <v>0.199266</v>
+        <v>1.5699999999999999E-4</v>
       </c>
       <c r="C25">
-        <v>1.9900000000000001E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.13619700000000001</v>
+      </c>
+      <c r="D25">
+        <v>5.1410999999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>8.3333300000000001</v>
       </c>
       <c r="B26">
-        <v>0.19719300000000001</v>
-      </c>
-      <c r="C26" s="1">
-        <v>8.7999999999999998E-5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="C26">
+        <v>0.12858600000000001</v>
+      </c>
+      <c r="D26">
+        <v>4.6650999999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8.6666699999999999</v>
       </c>
-      <c r="B27">
-        <v>0.19420499999999999</v>
-      </c>
-      <c r="C27" s="1">
-        <v>6.2000000000000003E-5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B27" s="1">
+        <v>6.3999999999999997E-5</v>
+      </c>
+      <c r="C27">
+        <v>0.12148200000000001</v>
+      </c>
+      <c r="D27">
+        <v>4.1861000000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>9</v>
       </c>
-      <c r="B28">
-        <v>0.19197800000000001</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2.5000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B28" s="1">
+        <v>3.8999999999999999E-5</v>
+      </c>
+      <c r="C28">
+        <v>0.11401500000000001</v>
+      </c>
+      <c r="D28">
+        <v>3.7095000000000003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>9.3333300000000001</v>
       </c>
-      <c r="B29">
-        <v>0.18956600000000001</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1.9000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B29" s="1">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="C29">
+        <v>0.107513</v>
+      </c>
+      <c r="D29">
+        <v>3.3452999999999997E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>9.6666699999999999</v>
       </c>
-      <c r="B30">
-        <v>0.18657699999999999</v>
-      </c>
-      <c r="C30" s="1">
-        <v>3.0000000000000001E-6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B30" s="1">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C30">
+        <v>0.100161</v>
+      </c>
+      <c r="D30">
+        <v>2.9159000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>10</v>
       </c>
-      <c r="B31">
-        <v>0.18398900000000001</v>
-      </c>
-      <c r="C31" s="1">
+      <c r="B31" s="1">
         <v>3.9999999999999998E-6</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C31">
+        <v>9.2675999999999994E-2</v>
+      </c>
+      <c r="D31">
+        <v>2.5028000000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>10.333299999999999</v>
       </c>
-      <c r="B32">
-        <v>0.18044199999999999</v>
-      </c>
-      <c r="C32" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B32" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="C32">
+        <v>8.6281999999999998E-2</v>
+      </c>
+      <c r="D32">
+        <v>2.1864000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>10.666700000000001</v>
       </c>
       <c r="B33">
-        <v>0.17746400000000001</v>
-      </c>
-      <c r="C33" s="1">
-        <v>3.0000000000000001E-6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>7.9837000000000005E-2</v>
+      </c>
+      <c r="D33">
+        <v>1.8475999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>11</v>
       </c>
       <c r="B34">
-        <v>0.17487800000000001</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+        <v>7.3278999999999997E-2</v>
+      </c>
+      <c r="D34">
+        <v>1.5786000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>11.333299999999999</v>
       </c>
       <c r="B35">
-        <v>0.17203299999999999</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+        <v>6.7275000000000001E-2</v>
+      </c>
+      <c r="D35">
+        <v>1.323E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>11.666700000000001</v>
       </c>
       <c r="B36">
-        <v>0.16705900000000001</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+        <v>6.0775999999999997E-2</v>
+      </c>
+      <c r="D36">
+        <v>1.0691000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>12</v>
       </c>
       <c r="B37">
-        <v>0.164635</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+        <v>5.4961000000000003E-2</v>
+      </c>
+      <c r="D37">
+        <v>8.7899999999999992E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>12.333299999999999</v>
       </c>
       <c r="B38">
-        <v>0.16009999999999999</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4.8690999999999998E-2</v>
+      </c>
+      <c r="D38">
+        <v>7.1170000000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>12.666700000000001</v>
       </c>
       <c r="B39">
-        <v>0.15706600000000001</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4.3747000000000001E-2</v>
+      </c>
+      <c r="D39">
+        <v>5.3439999999999998E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>13</v>
       </c>
       <c r="B40">
-        <v>0.153506</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3.8554999999999999E-2</v>
+      </c>
+      <c r="D40">
+        <v>4.3059999999999999E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>13.333299999999999</v>
       </c>
       <c r="B41">
-        <v>0.14897199999999999</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3.4185E-2</v>
+      </c>
+      <c r="D41">
+        <v>3.258E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>13.666700000000001</v>
       </c>
       <c r="B42">
-        <v>0.14524400000000001</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2.9496999999999999E-2</v>
+      </c>
+      <c r="D42">
+        <v>2.4740000000000001E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>14</v>
       </c>
       <c r="B43">
-        <v>0.14088899999999999</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2.5527000000000001E-2</v>
+      </c>
+      <c r="D43">
+        <v>1.8309999999999999E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>14.333299999999999</v>
       </c>
       <c r="B44">
-        <v>0.13719999999999999</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2.1481E-2</v>
+      </c>
+      <c r="D44">
+        <v>1.317E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>14.666700000000001</v>
       </c>
       <c r="B45">
-        <v>0.13253100000000001</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.8168E-2</v>
+      </c>
+      <c r="D45">
+        <v>9.1799999999999998E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>15</v>
       </c>
       <c r="B46">
-        <v>0.12862599999999999</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.5032999999999999E-2</v>
+      </c>
+      <c r="D46">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>15.333299999999999</v>
       </c>
       <c r="B47">
-        <v>0.123805</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.2414E-2</v>
+      </c>
+      <c r="D47">
+        <v>4.0099999999999999E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>15.666700000000001</v>
       </c>
       <c r="B48">
-        <v>0.120686</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+        <v>9.9699999999999997E-3</v>
+      </c>
+      <c r="D48">
+        <v>2.23E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>16</v>
       </c>
       <c r="B49">
-        <v>0.11652899999999999</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+        <v>7.8600000000000007E-3</v>
+      </c>
+      <c r="D49">
+        <v>1.73E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>16.333300000000001</v>
       </c>
       <c r="B50">
-        <v>0.111912</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+        <v>6.3090000000000004E-3</v>
+      </c>
+      <c r="D50" s="1">
+        <v>9.5000000000000005E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>16.666699999999999</v>
       </c>
       <c r="B51">
-        <v>0.107387</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4.8399999999999997E-3</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4.5000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>17</v>
       </c>
       <c r="B52">
-        <v>0.103571</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3.6740000000000002E-3</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1.5E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>17.333300000000001</v>
       </c>
       <c r="B53">
-        <v>9.9632999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2.7209999999999999E-3</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1.4E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>17.666699999999999</v>
       </c>
       <c r="B54">
-        <v>9.5422999999999994E-2</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.9889999999999999E-3</v>
+      </c>
+      <c r="D54" s="1">
+        <v>6.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>18</v>
       </c>
       <c r="B55">
-        <v>9.1735999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.4239999999999999E-3</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>18.333300000000001</v>
       </c>
       <c r="B56">
-        <v>8.7613999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.0139999999999999E-3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>18.666699999999999</v>
       </c>
       <c r="B57">
-        <v>8.3294000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+        <v>6.1300000000000005E-4</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>19</v>
       </c>
       <c r="B58">
-        <v>7.9613000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4.1599999999999997E-4</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>19.333300000000001</v>
       </c>
       <c r="B59">
-        <v>7.5965000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2.8200000000000002E-4</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>19.666699999999999</v>
       </c>
       <c r="B60">
-        <v>7.2605000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.64E-4</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>20</v>
       </c>
       <c r="B61">
-        <v>6.8296999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.05E-4</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>20.333300000000001</v>
       </c>
       <c r="B62">
-        <v>6.4915E-2</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>5.8999999999999998E-5</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>20.666699999999999</v>
       </c>
       <c r="B63">
-        <v>6.0756999999999999E-2</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>21</v>
       </c>
       <c r="B64">
-        <v>5.7432999999999998E-2</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>21.333300000000001</v>
       </c>
       <c r="B65">
-        <v>5.3887999999999998E-2</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>21.666699999999999</v>
       </c>
       <c r="B66">
-        <v>5.0500000000000003E-2</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>22</v>
       </c>
       <c r="B67">
-        <v>4.7044999999999997E-2</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>22.333300000000001</v>
       </c>
       <c r="B68">
-        <v>4.3826999999999998E-2</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>22.666699999999999</v>
       </c>
       <c r="B69">
-        <v>4.0147000000000002E-2</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>23</v>
       </c>
       <c r="B70">
-        <v>3.6907000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>23.333300000000001</v>
       </c>
       <c r="B71">
-        <v>3.3979000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>23.666699999999999</v>
       </c>
       <c r="B72">
-        <v>3.0972E-2</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>24</v>
       </c>
       <c r="B73">
-        <v>2.7705E-2</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>24.333300000000001</v>
       </c>
       <c r="B74">
-        <v>2.4691000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>24.666699999999999</v>
       </c>
       <c r="B75">
-        <v>2.2345E-2</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>25</v>
       </c>
       <c r="B76">
-        <v>1.9605000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>25.333300000000001</v>
       </c>
       <c r="B77">
-        <v>1.7121999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>25.666699999999999</v>
       </c>
       <c r="B78">
-        <v>1.4881E-2</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>26</v>
       </c>
       <c r="B79">
-        <v>1.2905E-2</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>26.333300000000001</v>
       </c>
       <c r="B80">
-        <v>1.1048000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>26.666699999999999</v>
       </c>
       <c r="B81">
-        <v>9.1819999999999992E-3</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>27</v>
       </c>
       <c r="B82">
-        <v>7.7479999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>27.333300000000001</v>
       </c>
       <c r="B83">
-        <v>6.4390000000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>27.666699999999999</v>
       </c>
       <c r="B84">
-        <v>5.2119999999999996E-3</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>28</v>
       </c>
       <c r="B85">
-        <v>4.1780000000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>28.333300000000001</v>
       </c>
       <c r="B86">
-        <v>3.2929999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>28.666699999999999</v>
       </c>
       <c r="B87">
-        <v>2.5000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>29</v>
       </c>
       <c r="B88">
-        <v>1.905E-3</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>29.333300000000001</v>
       </c>
       <c r="B89">
-        <v>1.423E-3</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>29.666699999999999</v>
       </c>
       <c r="B90">
-        <v>1.0189999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>30</v>
       </c>
       <c r="B91">
-        <v>7.0600000000000003E-4</v>
+        <v>0</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>30.333300000000001</v>
       </c>
       <c r="B92">
-        <v>5.04E-4</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>30.666699999999999</v>
       </c>
       <c r="B93">
-        <v>3.3799999999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>31</v>
       </c>
       <c r="B94">
-        <v>1.9000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>31.333300000000001</v>
       </c>
       <c r="B95">
-        <v>1.6100000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>31.666699999999999</v>
       </c>
-      <c r="B96" s="1">
-        <v>9.8999999999999994E-5</v>
+      <c r="B96">
+        <v>0</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>32</v>
       </c>
-      <c r="B97" s="1">
-        <v>4.6999999999999997E-5</v>
+      <c r="B97">
+        <v>0</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>32.333300000000001</v>
       </c>
-      <c r="B98" s="1">
-        <v>3.4999999999999997E-5</v>
+      <c r="B98">
+        <v>0</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>32.666699999999999</v>
       </c>
-      <c r="B99" s="1">
-        <v>2.1999999999999999E-5</v>
+      <c r="B99">
+        <v>0</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>33</v>
       </c>
-      <c r="B100" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="B100">
+        <v>0</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>33.333300000000001</v>
       </c>
-      <c r="B101" s="1">
-        <v>9.9999999999999995E-7</v>
+      <c r="B101">
+        <v>0</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>33.666699999999999</v>
       </c>
-      <c r="B102" s="1">
-        <v>1.9999999999999999E-6</v>
+      <c r="B102">
+        <v>0</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>34</v>
       </c>
@@ -4055,8 +4342,11 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>34.333300000000001</v>
       </c>
@@ -4066,8 +4356,11 @@
       <c r="C104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>34.666699999999999</v>
       </c>
@@ -4077,8 +4370,11 @@
       <c r="C105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>35</v>
       </c>
@@ -4086,6 +4382,9 @@
         <v>0</v>
       </c>
       <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
         <v>0</v>
       </c>
     </row>
